--- a/Output/General/FACT_General.xlsx
+++ b/Output/General/FACT_General.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47971" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59962" uniqueCount="589">
   <si>
     <t>CUSTOMERNUMBER</t>
   </si>
